--- a/docs/CareConnect-Medication-1.xlsx
+++ b/docs/CareConnect-Medication-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="318">
   <si>
     <t>Path</t>
   </si>
@@ -477,41 +477,10 @@
 </t>
   </si>
   <si>
-    <t>Medication.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -765,18 +734,6 @@
   </si>
   <si>
     <t>Medication.form.coding.extension</t>
-  </si>
-  <si>
-    <t>Medication.form.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Medication.form.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Medication.form.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Medication.form.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Medication.form.coding.system</t>
@@ -1202,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM73"/>
+  <dimension ref="A1:AM65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3058,10 +3015,10 @@
         <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3141,7 +3098,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3161,19 +3118,23 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3221,7 +3182,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3239,29 +3200,29 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3270,19 +3231,19 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3320,25 +3281,25 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3350,18 +3311,18 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3369,7 +3330,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3381,21 +3342,21 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3443,10 +3404,10 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3461,18 +3422,18 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3492,19 +3453,21 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3552,7 +3515,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3570,18 +3533,18 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3604,19 +3567,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3665,7 +3628,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3683,18 +3646,18 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3720,15 +3683,17 @@
         <v>118</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3776,7 +3741,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3794,18 +3759,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3831,15 +3796,15 @@
         <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3863,13 +3828,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3887,7 +3852,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3905,18 +3870,18 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3939,18 +3904,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3998,7 +3961,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4013,21 +3976,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4050,20 +4013,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4111,7 +4070,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4129,18 +4088,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4163,20 +4122,16 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4224,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4239,21 +4194,21 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4273,19 +4228,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4314,10 +4269,10 @@
         <v>110</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4335,7 +4290,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4350,21 +4305,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4384,16 +4339,16 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4444,7 +4399,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4459,13 +4414,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4473,18 +4428,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4493,18 +4448,20 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4541,25 +4498,25 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4571,10 +4528,10 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4582,7 +4539,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4593,7 +4550,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4605,16 +4562,20 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4662,13 +4623,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4677,21 +4638,21 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>224</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4714,17 +4675,15 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4749,13 +4708,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4773,7 +4732,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4788,21 +4747,21 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4813,7 +4772,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4825,13 +4784,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4870,25 +4829,25 @@
         <v>40</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4900,7 +4859,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4911,11 +4870,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C34" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4934,17 +4895,15 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4981,16 +4940,16 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>128</v>
@@ -5011,7 +4970,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -5022,7 +4981,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5030,10 +4989,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -5045,26 +5004,26 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5106,13 +5065,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5124,18 +5083,18 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5155,18 +5114,20 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>118</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5215,7 +5176,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5233,18 +5194,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5252,10 +5213,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5264,19 +5225,21 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5312,25 +5275,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5342,31 +5305,29 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5375,19 +5336,21 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5435,13 +5398,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5453,18 +5416,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5484,19 +5447,23 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5544,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5562,29 +5529,29 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5593,21 +5560,23 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5643,25 +5612,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5673,18 +5642,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5692,10 +5661,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5707,16 +5676,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5766,25 +5735,25 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5795,7 +5764,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5818,13 +5787,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5875,7 +5844,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5893,7 +5862,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5904,18 +5873,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5924,29 +5893,27 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>40</v>
@@ -5988,13 +5955,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6006,13 +5973,13 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -6021,35 +5988,35 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6099,13 +6066,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6117,18 +6084,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6148,21 +6115,19 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6210,10 +6175,10 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>50</v>
@@ -6225,21 +6190,21 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6247,7 +6212,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>50</v>
@@ -6259,20 +6224,20 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6321,7 +6286,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6339,18 +6304,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6370,23 +6335,19 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6434,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6449,21 +6410,21 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>193</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6483,23 +6444,19 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6547,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6559,24 +6516,24 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6587,7 +6544,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6599,17 +6556,15 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6658,25 +6613,25 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>250</v>
+        <v>121</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6687,18 +6642,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6710,15 +6665,17 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6767,13 +6724,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6796,11 +6753,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6813,19 +6770,19 @@
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>99</v>
@@ -6878,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6896,7 +6853,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6907,40 +6864,38 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -6965,13 +6920,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -6989,13 +6944,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7004,10 +6959,10 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7018,7 +6973,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7026,10 +6981,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7041,13 +6996,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7098,36 +7053,36 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7150,18 +7105,16 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7209,7 +7162,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7227,7 +7180,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7238,18 +7191,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7261,15 +7214,17 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7318,13 +7273,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7333,52 +7288,54 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7427,25 +7384,25 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7456,7 +7413,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7464,7 +7421,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>50</v>
@@ -7479,13 +7436,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>120</v>
+        <v>289</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7536,10 +7493,10 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>50</v>
@@ -7551,10 +7508,10 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7565,18 +7522,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7588,17 +7545,15 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7647,13 +7602,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7662,10 +7617,10 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7676,11 +7631,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7693,23 +7648,21 @@
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7758,7 +7711,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7770,13 +7723,13 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7787,7 +7740,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7810,13 +7763,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7843,13 +7796,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7867,7 +7820,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7882,10 +7835,10 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -7896,11 +7849,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7919,15 +7872,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -7976,7 +7931,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>293</v>
+        <v>128</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7988,13 +7943,13 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8005,38 +7960,40 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8085,13 +8042,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8103,7 +8060,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8114,18 +8071,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8137,17 +8094,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8196,13 +8151,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8211,54 +8166,52 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8307,13 +8260,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8322,21 +8275,21 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8344,10 +8297,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8359,16 +8312,18 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8416,13 +8371,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8431,898 +8386,20 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM73">
+  <autoFilter ref="A1:AM65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9332,7 +8409,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
